--- a/data/pca/factorExposure/factorExposure_2016-12-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01573091147374407</v>
+        <v>0.01458829461017406</v>
       </c>
       <c r="C2">
-        <v>-0.03944871433511249</v>
+        <v>-0.04097559444107603</v>
       </c>
       <c r="D2">
-        <v>0.03055852941692703</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03266848136455568</v>
+      </c>
+      <c r="E2">
+        <v>0.0538679865542461</v>
+      </c>
+      <c r="F2">
+        <v>-0.01675444692706076</v>
+      </c>
+      <c r="G2">
+        <v>-0.1015996162120606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0640016782752981</v>
+        <v>0.03628504569200255</v>
       </c>
       <c r="C3">
-        <v>-0.1030456649941175</v>
+        <v>-0.08981222640294446</v>
       </c>
       <c r="D3">
-        <v>0.01952359839453234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0193543274701123</v>
+      </c>
+      <c r="E3">
+        <v>0.09968599542630863</v>
+      </c>
+      <c r="F3">
+        <v>-0.02722690607295474</v>
+      </c>
+      <c r="G3">
+        <v>-0.1038054074723568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06550933106477229</v>
+        <v>0.05673958091812389</v>
       </c>
       <c r="C4">
-        <v>-0.06176412886867127</v>
+        <v>-0.05886304401973889</v>
       </c>
       <c r="D4">
-        <v>0.02540110149588111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02740455390165452</v>
+      </c>
+      <c r="E4">
+        <v>0.05374213095177708</v>
+      </c>
+      <c r="F4">
+        <v>-0.007485394185309749</v>
+      </c>
+      <c r="G4">
+        <v>-0.09323216323647579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02382378018904842</v>
+        <v>0.03436286345659515</v>
       </c>
       <c r="C6">
-        <v>-0.05301475262504918</v>
+        <v>-0.04008362897654399</v>
       </c>
       <c r="D6">
-        <v>0.02154081646963145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02068995877800466</v>
+      </c>
+      <c r="E6">
+        <v>0.06273946000833602</v>
+      </c>
+      <c r="F6">
+        <v>-0.009564787284066708</v>
+      </c>
+      <c r="G6">
+        <v>-0.08368301967753015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01899553806536212</v>
+        <v>0.0208648977035778</v>
       </c>
       <c r="C7">
-        <v>-0.04356864313689392</v>
+        <v>-0.03536009043076452</v>
       </c>
       <c r="D7">
-        <v>0.01763062914853114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0162967593560139</v>
+      </c>
+      <c r="E7">
+        <v>0.02907028969974977</v>
+      </c>
+      <c r="F7">
+        <v>0.001202344937691736</v>
+      </c>
+      <c r="G7">
+        <v>-0.123658550202628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.002145855182029026</v>
+        <v>0.004905655417455781</v>
       </c>
       <c r="C8">
-        <v>-0.01021513879925661</v>
+        <v>-0.01990791169256689</v>
       </c>
       <c r="D8">
-        <v>0.004079449794415264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.005043719535192726</v>
+      </c>
+      <c r="E8">
+        <v>0.0365145091533709</v>
+      </c>
+      <c r="F8">
+        <v>-0.006436953247747451</v>
+      </c>
+      <c r="G8">
+        <v>-0.06658220701472867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0291234656068144</v>
+        <v>0.03515887832132664</v>
       </c>
       <c r="C9">
-        <v>-0.04229586535900397</v>
+        <v>-0.04509211025520787</v>
       </c>
       <c r="D9">
-        <v>0.01792265370884569</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01817363088145995</v>
+      </c>
+      <c r="E9">
+        <v>0.0381353288476704</v>
+      </c>
+      <c r="F9">
+        <v>-0.005022150175258359</v>
+      </c>
+      <c r="G9">
+        <v>-0.09887611919146141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07882424968170328</v>
+        <v>0.09184239702693199</v>
       </c>
       <c r="C10">
-        <v>0.1886570290306749</v>
+        <v>0.1952602765868778</v>
       </c>
       <c r="D10">
-        <v>-0.05119061920753796</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01487102208256625</v>
+      </c>
+      <c r="E10">
+        <v>0.01619552352701401</v>
+      </c>
+      <c r="F10">
+        <v>-0.03028928621509019</v>
+      </c>
+      <c r="G10">
+        <v>-0.05302494727299007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03924680427093633</v>
+        <v>0.03643976863645245</v>
       </c>
       <c r="C11">
-        <v>-0.05465530244818125</v>
+        <v>-0.05094794008610599</v>
       </c>
       <c r="D11">
-        <v>0.005391054840057257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.00329630872984645</v>
+      </c>
+      <c r="E11">
+        <v>0.0277556375202948</v>
+      </c>
+      <c r="F11">
+        <v>0.01377180438908242</v>
+      </c>
+      <c r="G11">
+        <v>-0.07437645110879994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03711283349688477</v>
+        <v>0.03739780142479793</v>
       </c>
       <c r="C12">
-        <v>-0.04429438197995583</v>
+        <v>-0.04615165411346664</v>
       </c>
       <c r="D12">
-        <v>0.008985530196294124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.00752459039114515</v>
+      </c>
+      <c r="E12">
+        <v>0.0181458575322102</v>
+      </c>
+      <c r="F12">
+        <v>0.004481604941820461</v>
+      </c>
+      <c r="G12">
+        <v>-0.07369071058112675</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.009149517990415093</v>
+        <v>0.011175225627033</v>
       </c>
       <c r="C13">
-        <v>-0.03311872272298956</v>
+        <v>-0.03601373072121365</v>
       </c>
       <c r="D13">
-        <v>0.02779896082605105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03069553458737343</v>
+      </c>
+      <c r="E13">
+        <v>0.06199662742175527</v>
+      </c>
+      <c r="F13">
+        <v>-0.02011236023302122</v>
+      </c>
+      <c r="G13">
+        <v>-0.1306051130532404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006640316135431272</v>
+        <v>0.008603205674905651</v>
       </c>
       <c r="C14">
-        <v>-0.02741827936644194</v>
+        <v>-0.02703010344974331</v>
       </c>
       <c r="D14">
-        <v>0.01191205867660694</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01233679535380769</v>
+      </c>
+      <c r="E14">
+        <v>0.02282621497857651</v>
+      </c>
+      <c r="F14">
+        <v>-0.007734356955778419</v>
+      </c>
+      <c r="G14">
+        <v>-0.1146571312766146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03374100467161146</v>
+        <v>0.03520501697492434</v>
       </c>
       <c r="C16">
-        <v>-0.04127682633267576</v>
+        <v>-0.04398555559823013</v>
       </c>
       <c r="D16">
-        <v>0.003775002389268796</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002942880330506732</v>
+      </c>
+      <c r="E16">
+        <v>0.02387841108858883</v>
+      </c>
+      <c r="F16">
+        <v>-0.003584625092465969</v>
+      </c>
+      <c r="G16">
+        <v>-0.08094552943386571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02892089597352731</v>
+        <v>0.0179584543457426</v>
       </c>
       <c r="C19">
-        <v>-0.05600266933931249</v>
+        <v>-0.0471685591175197</v>
       </c>
       <c r="D19">
-        <v>0.01990206659522082</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02414076330912852</v>
+      </c>
+      <c r="E19">
+        <v>0.1019736762567167</v>
+      </c>
+      <c r="F19">
+        <v>-0.02083777305349565</v>
+      </c>
+      <c r="G19">
+        <v>-0.1347182678200404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01228064489832822</v>
+        <v>0.01612384397172436</v>
       </c>
       <c r="C20">
-        <v>-0.04172898661843806</v>
+        <v>-0.03646848914611742</v>
       </c>
       <c r="D20">
-        <v>0.01751558248492879</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01656992857990425</v>
+      </c>
+      <c r="E20">
+        <v>0.04655446591574883</v>
+      </c>
+      <c r="F20">
+        <v>-0.03075473941012723</v>
+      </c>
+      <c r="G20">
+        <v>-0.1061966605167567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.005262625699678912</v>
+        <v>0.006498997055507252</v>
       </c>
       <c r="C21">
-        <v>-0.0344646582108474</v>
+        <v>-0.03585900418264222</v>
       </c>
       <c r="D21">
-        <v>0.01989285656652504</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02313612201320998</v>
+      </c>
+      <c r="E21">
+        <v>0.06620311062278113</v>
+      </c>
+      <c r="F21">
+        <v>-0.02237799292078839</v>
+      </c>
+      <c r="G21">
+        <v>-0.1510322643678615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.002074367560244298</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01338922877761301</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003615415845641975</v>
+      </c>
+      <c r="E22">
+        <v>0.02426761917118177</v>
+      </c>
+      <c r="F22">
+        <v>0.002074620328884977</v>
+      </c>
+      <c r="G22">
+        <v>-0.01016279664238007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002084824707884621</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01336084103792419</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003595383614113112</v>
+      </c>
+      <c r="E23">
+        <v>0.02408639056081463</v>
+      </c>
+      <c r="F23">
+        <v>0.001775503303597449</v>
+      </c>
+      <c r="G23">
+        <v>-0.009987907137195813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02723582567957764</v>
+        <v>0.03123599095871208</v>
       </c>
       <c r="C24">
-        <v>-0.04761216404450083</v>
+        <v>-0.04948934093160118</v>
       </c>
       <c r="D24">
-        <v>0.01056132849852802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.008112569070981103</v>
+      </c>
+      <c r="E24">
+        <v>0.02259858900372557</v>
+      </c>
+      <c r="F24">
+        <v>0.00572611286105878</v>
+      </c>
+      <c r="G24">
+        <v>-0.08113330941297693</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04616065188789254</v>
+        <v>0.04366015339873005</v>
       </c>
       <c r="C25">
-        <v>-0.0528736582939503</v>
+        <v>-0.05528075011982306</v>
       </c>
       <c r="D25">
-        <v>0.01422264257204859</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01217694708492224</v>
+      </c>
+      <c r="E25">
+        <v>0.0154028255884991</v>
+      </c>
+      <c r="F25">
+        <v>0.004959069107329834</v>
+      </c>
+      <c r="G25">
+        <v>-0.08878210553957434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.004329547876803767</v>
+        <v>0.01473151355640656</v>
       </c>
       <c r="C26">
-        <v>-0.008103866973334371</v>
+        <v>-0.0100563435452923</v>
       </c>
       <c r="D26">
-        <v>0.02372893655725017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02496412818460706</v>
+      </c>
+      <c r="E26">
+        <v>0.01666743497557551</v>
+      </c>
+      <c r="F26">
+        <v>-0.007436938994963297</v>
+      </c>
+      <c r="G26">
+        <v>-0.08455719171299843</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09540078674124843</v>
+        <v>0.1216514089230186</v>
       </c>
       <c r="C28">
-        <v>0.2199258814548836</v>
+        <v>0.2453839515877856</v>
       </c>
       <c r="D28">
-        <v>-0.0452769841489488</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006397204414268077</v>
+      </c>
+      <c r="E28">
+        <v>-0.003254073483559912</v>
+      </c>
+      <c r="F28">
+        <v>-0.03199554651509949</v>
+      </c>
+      <c r="G28">
+        <v>-0.0533165644287133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01167594314885522</v>
+        <v>0.007934373329651382</v>
       </c>
       <c r="C29">
-        <v>-0.01964336133958557</v>
+        <v>-0.02223765191127278</v>
       </c>
       <c r="D29">
-        <v>0.00935975389211097</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01097738692346853</v>
+      </c>
+      <c r="E29">
+        <v>0.01406642372789134</v>
+      </c>
+      <c r="F29">
+        <v>-0.01120294125786725</v>
+      </c>
+      <c r="G29">
+        <v>-0.1033756627137651</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03785794478963964</v>
+        <v>0.03937310877657542</v>
       </c>
       <c r="C30">
-        <v>-0.07231549949715484</v>
+        <v>-0.06419775020695538</v>
       </c>
       <c r="D30">
-        <v>0.03297079044272352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03321148044229088</v>
+      </c>
+      <c r="E30">
+        <v>0.08527423101031961</v>
+      </c>
+      <c r="F30">
+        <v>0.01724807591221717</v>
+      </c>
+      <c r="G30">
+        <v>-0.1176027770608027</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04206971165387405</v>
+        <v>0.05631736903872144</v>
       </c>
       <c r="C31">
-        <v>-0.02468563446504525</v>
+        <v>-0.04061328019708063</v>
       </c>
       <c r="D31">
-        <v>0.00408662558838963</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004472660035473269</v>
+      </c>
+      <c r="E31">
+        <v>0.0007221063883631795</v>
+      </c>
+      <c r="F31">
+        <v>-0.03514861680323397</v>
+      </c>
+      <c r="G31">
+        <v>-0.09511004044100996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.01053360991359443</v>
+        <v>0.002932055938431017</v>
       </c>
       <c r="C32">
-        <v>-0.03768288215888582</v>
+        <v>-0.02316076286592248</v>
       </c>
       <c r="D32">
-        <v>-0.001138991989273001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0003020914559855965</v>
+      </c>
+      <c r="E32">
+        <v>0.05289512040122427</v>
+      </c>
+      <c r="F32">
+        <v>0.01859923045782713</v>
+      </c>
+      <c r="G32">
+        <v>-0.07184849853286422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02960907948346226</v>
+        <v>0.02656606091202146</v>
       </c>
       <c r="C33">
-        <v>-0.05446650690913764</v>
+        <v>-0.0465875967967624</v>
       </c>
       <c r="D33">
-        <v>0.01775687624149043</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01960550202072734</v>
+      </c>
+      <c r="E33">
+        <v>0.07030291322170511</v>
+      </c>
+      <c r="F33">
+        <v>-0.00340502693040696</v>
+      </c>
+      <c r="G33">
+        <v>-0.1559718138821187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.0524814583362625</v>
+        <v>0.04248743563736861</v>
       </c>
       <c r="C34">
-        <v>-0.0538098750945708</v>
+        <v>-0.06008697805731563</v>
       </c>
       <c r="D34">
-        <v>-0.002880491654128693</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.003395652115239908</v>
+      </c>
+      <c r="E34">
+        <v>0.02222276632301878</v>
+      </c>
+      <c r="F34">
+        <v>0.01939507030650823</v>
+      </c>
+      <c r="G34">
+        <v>-0.07816162878896495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008119090403350585</v>
+        <v>0.01540732216680278</v>
       </c>
       <c r="C36">
-        <v>-0.003790010456036104</v>
+        <v>-0.006011630408902071</v>
       </c>
       <c r="D36">
-        <v>0.01105621230923634</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01423120543645722</v>
+      </c>
+      <c r="E36">
+        <v>0.02092898272687069</v>
+      </c>
+      <c r="F36">
+        <v>-0.01031388580087442</v>
+      </c>
+      <c r="G36">
+        <v>-0.09602355116601055</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03503517270104872</v>
+        <v>0.0309144975488656</v>
       </c>
       <c r="C38">
-        <v>-0.02353889547794332</v>
+        <v>-0.02291094488250977</v>
       </c>
       <c r="D38">
-        <v>-0.008500743810499745</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.005943153493181954</v>
+      </c>
+      <c r="E38">
+        <v>0.02101723351923907</v>
+      </c>
+      <c r="F38">
+        <v>-0.01514374814746468</v>
+      </c>
+      <c r="G38">
+        <v>-0.0905854792366481</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.03592097992312026</v>
+        <v>0.03718509518121175</v>
       </c>
       <c r="C39">
-        <v>-0.08439594756857212</v>
+        <v>-0.07521225000739908</v>
       </c>
       <c r="D39">
-        <v>0.01975923391611889</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01421954007588306</v>
+      </c>
+      <c r="E39">
+        <v>0.04478169777580898</v>
+      </c>
+      <c r="F39">
+        <v>0.01600101738407354</v>
+      </c>
+      <c r="G39">
+        <v>-0.09036719624894937</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0170126479274662</v>
+        <v>0.01643203258102976</v>
       </c>
       <c r="C40">
-        <v>-0.02530806594036643</v>
+        <v>-0.03524985533173378</v>
       </c>
       <c r="D40">
-        <v>0.01364083995006635</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0163063048820763</v>
+      </c>
+      <c r="E40">
+        <v>0.03434756832445075</v>
+      </c>
+      <c r="F40">
+        <v>-0.03033654940070378</v>
+      </c>
+      <c r="G40">
+        <v>-0.115195942171552</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.0101889374697184</v>
+        <v>0.01854962950852329</v>
       </c>
       <c r="C41">
-        <v>0.001690674369507999</v>
+        <v>0.002199278236896483</v>
       </c>
       <c r="D41">
-        <v>0.002261879344285158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.006078285911226325</v>
+      </c>
+      <c r="E41">
+        <v>0.01721868956076005</v>
+      </c>
+      <c r="F41">
+        <v>-0.01628074014641207</v>
+      </c>
+      <c r="G41">
+        <v>-0.08952975293980643</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.0132499706772033</v>
+        <v>0.005299650368040043</v>
       </c>
       <c r="C42">
-        <v>-0.03161454689798925</v>
+        <v>-0.02435812748605095</v>
       </c>
       <c r="D42">
-        <v>0.0927357277130422</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08301790670649274</v>
+      </c>
+      <c r="E42">
+        <v>-0.01367456836104715</v>
+      </c>
+      <c r="F42">
+        <v>-0.02969221697625611</v>
+      </c>
+      <c r="G42">
+        <v>0.02181838072457644</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02968738337033058</v>
+        <v>0.03323727193918713</v>
       </c>
       <c r="C43">
-        <v>-0.009237990900831574</v>
+        <v>-0.01062887258847769</v>
       </c>
       <c r="D43">
-        <v>0.002128781294562851</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.007753934220488212</v>
+      </c>
+      <c r="E43">
+        <v>0.03539249261025542</v>
+      </c>
+      <c r="F43">
+        <v>-0.01436245989762269</v>
+      </c>
+      <c r="G43">
+        <v>-0.1152058289309232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01989978644858871</v>
+        <v>0.01491586669860891</v>
       </c>
       <c r="C44">
-        <v>-0.05415790847265175</v>
+        <v>-0.05131186949876729</v>
       </c>
       <c r="D44">
-        <v>0.01062507304570079</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.009571960591173014</v>
+      </c>
+      <c r="E44">
+        <v>0.04175778923476769</v>
+      </c>
+      <c r="F44">
+        <v>-0.01986970093789818</v>
+      </c>
+      <c r="G44">
+        <v>-0.1184802455420611</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.001009594206197666</v>
+        <v>0.01022646272257282</v>
       </c>
       <c r="C46">
-        <v>-0.0101484182604422</v>
+        <v>-0.01693706315201935</v>
       </c>
       <c r="D46">
-        <v>0.01289501104370336</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01391578226538659</v>
+      </c>
+      <c r="E46">
+        <v>0.006499662468154956</v>
+      </c>
+      <c r="F46">
+        <v>-0.01730836347098421</v>
+      </c>
+      <c r="G46">
+        <v>-0.1128551621796531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07370841607939496</v>
+        <v>0.08537678352670403</v>
       </c>
       <c r="C47">
-        <v>-0.06468192997262961</v>
+        <v>-0.07152782075470863</v>
       </c>
       <c r="D47">
-        <v>0.0002597270587638864</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004961054884347328</v>
+      </c>
+      <c r="E47">
+        <v>-0.008246517795112075</v>
+      </c>
+      <c r="F47">
+        <v>-0.04273772050218572</v>
+      </c>
+      <c r="G47">
+        <v>-0.08745976580530807</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01172714943481707</v>
+        <v>0.01743380116507905</v>
       </c>
       <c r="C48">
-        <v>-0.01069144122861607</v>
+        <v>-0.01220635561829643</v>
       </c>
       <c r="D48">
-        <v>0.001512891124315771</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.003848340619948133</v>
+      </c>
+      <c r="E48">
+        <v>0.01506941107427851</v>
+      </c>
+      <c r="F48">
+        <v>-0.02237860334608639</v>
+      </c>
+      <c r="G48">
+        <v>-0.1085040400374849</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07869349765482204</v>
+        <v>0.07881844646113488</v>
       </c>
       <c r="C50">
-        <v>-0.06000946792361301</v>
+        <v>-0.06741664466070786</v>
       </c>
       <c r="D50">
-        <v>-6.980827181490651e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001252130666647648</v>
+      </c>
+      <c r="E50">
+        <v>-0.001288133984405288</v>
+      </c>
+      <c r="F50">
+        <v>-0.04222040215316415</v>
+      </c>
+      <c r="G50">
+        <v>-0.09852092861170825</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01851128615315971</v>
+        <v>0.01222559903327178</v>
       </c>
       <c r="C51">
-        <v>-0.03907478238442268</v>
+        <v>-0.03131655627470915</v>
       </c>
       <c r="D51">
-        <v>0.01171218778109418</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0126893432412947</v>
+      </c>
+      <c r="E51">
+        <v>0.04108907442059502</v>
+      </c>
+      <c r="F51">
+        <v>0.007092732539718247</v>
+      </c>
+      <c r="G51">
+        <v>-0.1060966021250578</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1013237805172612</v>
+        <v>0.08747112934510051</v>
       </c>
       <c r="C53">
-        <v>-0.07304909985676868</v>
+        <v>-0.08474171041198726</v>
       </c>
       <c r="D53">
-        <v>-0.0007322941718739775</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003818254817767172</v>
+      </c>
+      <c r="E53">
+        <v>-0.02889870461802942</v>
+      </c>
+      <c r="F53">
+        <v>-0.04570720452852308</v>
+      </c>
+      <c r="G53">
+        <v>-0.09019843768797932</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02711644626928626</v>
+        <v>0.03185887871865913</v>
       </c>
       <c r="C54">
-        <v>-0.002751278410157532</v>
+        <v>-0.01673521450833164</v>
       </c>
       <c r="D54">
-        <v>-0.005010043071787102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001096050835341661</v>
+      </c>
+      <c r="E54">
+        <v>0.02919902112019057</v>
+      </c>
+      <c r="F54">
+        <v>-0.0136391756241226</v>
+      </c>
+      <c r="G54">
+        <v>-0.1132301049684005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07604199407357265</v>
+        <v>0.08210294785043544</v>
       </c>
       <c r="C55">
-        <v>-0.06271098841645456</v>
+        <v>-0.06839898791881935</v>
       </c>
       <c r="D55">
-        <v>-0.0001076224641758434</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005976802224042071</v>
+      </c>
+      <c r="E55">
+        <v>-0.03266155951088687</v>
+      </c>
+      <c r="F55">
+        <v>-0.04604579841388017</v>
+      </c>
+      <c r="G55">
+        <v>-0.06768920113955508</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1523397196552965</v>
+        <v>0.1442048087791266</v>
       </c>
       <c r="C56">
-        <v>-0.09206919030213913</v>
+        <v>-0.1032387310686426</v>
       </c>
       <c r="D56">
-        <v>-0.009298523072218238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01336160750213172</v>
+      </c>
+      <c r="E56">
+        <v>-0.0398732364717536</v>
+      </c>
+      <c r="F56">
+        <v>-0.05687350230623147</v>
+      </c>
+      <c r="G56">
+        <v>-0.05484592769101385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.009707751912265299</v>
+        <v>0.003663684023995772</v>
       </c>
       <c r="C57">
-        <v>-0.003490797305086681</v>
+        <v>-0.003097011181584803</v>
       </c>
       <c r="D57">
-        <v>0.02168748321756281</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02304359392184422</v>
+      </c>
+      <c r="E57">
+        <v>0.02432196232938463</v>
+      </c>
+      <c r="F57">
+        <v>-0.003563859173685912</v>
+      </c>
+      <c r="G57">
+        <v>-0.01132264016144087</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04867997461148889</v>
+        <v>0.03759075388448071</v>
       </c>
       <c r="C58">
-        <v>-0.05869293847708271</v>
+        <v>-0.03094228721158242</v>
       </c>
       <c r="D58">
-        <v>0.003332787585982424</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.04030396160832789</v>
+      </c>
+      <c r="E58">
+        <v>0.7088577478186115</v>
+      </c>
+      <c r="F58">
+        <v>-0.5954440306206524</v>
+      </c>
+      <c r="G58">
+        <v>0.3114875164808537</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1449340650077801</v>
+        <v>0.1467843565639849</v>
       </c>
       <c r="C59">
-        <v>0.2171750493707393</v>
+        <v>0.2070108616799644</v>
       </c>
       <c r="D59">
-        <v>-0.05696311123220855</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.009635507232562695</v>
+      </c>
+      <c r="E59">
+        <v>0.0225497399148527</v>
+      </c>
+      <c r="F59">
+        <v>-0.01532198282616954</v>
+      </c>
+      <c r="G59">
+        <v>-0.04049139807129062</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3107530236806073</v>
+        <v>0.2871183538130701</v>
       </c>
       <c r="C60">
-        <v>-0.09011017634417817</v>
+        <v>-0.09030003483586738</v>
       </c>
       <c r="D60">
-        <v>-0.00141852480669249</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01925966624127069</v>
+      </c>
+      <c r="E60">
+        <v>0.1364987168212732</v>
+      </c>
+      <c r="F60">
+        <v>0.3045114549588312</v>
+      </c>
+      <c r="G60">
+        <v>0.1614455182292765</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03292165202118517</v>
+        <v>0.03940896233722948</v>
       </c>
       <c r="C61">
-        <v>-0.06350061453646026</v>
+        <v>-0.06220891863981331</v>
       </c>
       <c r="D61">
-        <v>0.01055922616756209</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.00780501157493976</v>
+      </c>
+      <c r="E61">
+        <v>0.03956468793241875</v>
+      </c>
+      <c r="F61">
+        <v>0.005854224405802762</v>
+      </c>
+      <c r="G61">
+        <v>-0.08826508198003082</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01344611546005243</v>
+        <v>0.01536017175105115</v>
       </c>
       <c r="C63">
-        <v>-0.02744315992938869</v>
+        <v>-0.02652893447980613</v>
       </c>
       <c r="D63">
-        <v>0.01067720836106599</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.009633918880669057</v>
+      </c>
+      <c r="E63">
+        <v>0.01393353931989477</v>
+      </c>
+      <c r="F63">
+        <v>-0.01233718497699418</v>
+      </c>
+      <c r="G63">
+        <v>-0.08939534973029992</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04656489256422106</v>
+        <v>0.05213336538892461</v>
       </c>
       <c r="C64">
-        <v>-0.03070619778605089</v>
+        <v>-0.04717278914184526</v>
       </c>
       <c r="D64">
-        <v>0.005411619638047817</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006277919182978645</v>
+      </c>
+      <c r="E64">
+        <v>0.007820286017722304</v>
+      </c>
+      <c r="F64">
+        <v>0.002528267274347806</v>
+      </c>
+      <c r="G64">
+        <v>-0.09403541198334631</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08259393125500912</v>
+        <v>0.07127582615738513</v>
       </c>
       <c r="C65">
-        <v>-0.06414332412671739</v>
+        <v>-0.04564266775433233</v>
       </c>
       <c r="D65">
-        <v>0.01729021942802221</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0197638499305739</v>
+      </c>
+      <c r="E65">
+        <v>0.06618430021901144</v>
+      </c>
+      <c r="F65">
+        <v>0.008365602080901187</v>
+      </c>
+      <c r="G65">
+        <v>-0.03800567672824987</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05726605267628017</v>
+        <v>0.04956882090691994</v>
       </c>
       <c r="C66">
-        <v>-0.1238849812036669</v>
+        <v>-0.09995535358364219</v>
       </c>
       <c r="D66">
-        <v>0.02350423315452599</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01512383414140431</v>
+      </c>
+      <c r="E66">
+        <v>0.06817754394231955</v>
+      </c>
+      <c r="F66">
+        <v>0.02120700355191118</v>
+      </c>
+      <c r="G66">
+        <v>-0.09385411668768001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06278269298213437</v>
+        <v>0.0538955780130923</v>
       </c>
       <c r="C67">
-        <v>-0.02625658619251168</v>
+        <v>-0.02790567582129055</v>
       </c>
       <c r="D67">
-        <v>-0.008044418596831507</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005235657212186476</v>
+      </c>
+      <c r="E67">
+        <v>0.007394622999519976</v>
+      </c>
+      <c r="F67">
+        <v>-0.01032305947601349</v>
+      </c>
+      <c r="G67">
+        <v>-0.0769353455991139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1112952211969292</v>
+        <v>0.1496987410332623</v>
       </c>
       <c r="C68">
-        <v>0.2806263467023417</v>
+        <v>0.2701124124949574</v>
       </c>
       <c r="D68">
-        <v>-0.04364405398895265</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005963349519645797</v>
+      </c>
+      <c r="E68">
+        <v>-0.007245546354059687</v>
+      </c>
+      <c r="F68">
+        <v>-0.04476930708390191</v>
+      </c>
+      <c r="G68">
+        <v>-0.02694110259268634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08187437331880612</v>
+        <v>0.08516943323109001</v>
       </c>
       <c r="C69">
-        <v>-0.06031471488490444</v>
+        <v>-0.07433586088771019</v>
       </c>
       <c r="D69">
-        <v>-0.005472796774126733</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008324252951287822</v>
+      </c>
+      <c r="E69">
+        <v>-0.01300762978507997</v>
+      </c>
+      <c r="F69">
+        <v>-0.01967762589703345</v>
+      </c>
+      <c r="G69">
+        <v>-0.100872733514229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1196440095287703</v>
+        <v>0.137053187843416</v>
       </c>
       <c r="C71">
-        <v>0.2270044667671872</v>
+        <v>0.2369989462581649</v>
       </c>
       <c r="D71">
-        <v>-0.04750005247379329</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0023247347791988</v>
+      </c>
+      <c r="E71">
+        <v>0.02295363713166515</v>
+      </c>
+      <c r="F71">
+        <v>-0.03956396609297167</v>
+      </c>
+      <c r="G71">
+        <v>-0.06698161501560035</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.07174701945472883</v>
+        <v>0.08713958821737205</v>
       </c>
       <c r="C72">
-        <v>-0.06510503449081333</v>
+        <v>-0.05863637547097443</v>
       </c>
       <c r="D72">
-        <v>-0.004655454280511495</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.006886069398851676</v>
+      </c>
+      <c r="E72">
+        <v>0.009612550639372655</v>
+      </c>
+      <c r="F72">
+        <v>0.02442780994488438</v>
+      </c>
+      <c r="G72">
+        <v>-0.08462511196325619</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4337016332610178</v>
+        <v>0.3730415744875529</v>
       </c>
       <c r="C73">
-        <v>-0.100429203109281</v>
+        <v>-0.08156829467395882</v>
       </c>
       <c r="D73">
-        <v>-0.009148269870164111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.03321124309743084</v>
+      </c>
+      <c r="E73">
+        <v>0.2915453704040317</v>
+      </c>
+      <c r="F73">
+        <v>0.5286219193277285</v>
+      </c>
+      <c r="G73">
+        <v>0.3273909666073068</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1182454116071778</v>
+        <v>0.1102760875428668</v>
       </c>
       <c r="C74">
-        <v>-0.1171940500915385</v>
+        <v>-0.1016165819780139</v>
       </c>
       <c r="D74">
-        <v>0.0002289271757487305</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009793614892516843</v>
+      </c>
+      <c r="E74">
+        <v>-0.01382873875340483</v>
+      </c>
+      <c r="F74">
+        <v>-0.05901240547133178</v>
+      </c>
+      <c r="G74">
+        <v>-0.07140737838917208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2605339986272845</v>
+        <v>0.255130081704335</v>
       </c>
       <c r="C75">
-        <v>-0.1273262284352463</v>
+        <v>-0.1419573385772694</v>
       </c>
       <c r="D75">
-        <v>-0.0234158464121609</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03312128020135038</v>
+      </c>
+      <c r="E75">
+        <v>-0.1037761592720653</v>
+      </c>
+      <c r="F75">
+        <v>-0.1275186430048034</v>
+      </c>
+      <c r="G75">
+        <v>-0.02283598925104678</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.12263149644164</v>
+        <v>0.1243327546097264</v>
       </c>
       <c r="C76">
-        <v>-0.1062623560730185</v>
+        <v>-0.1035820230105645</v>
       </c>
       <c r="D76">
-        <v>-0.008062578359496175</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01858518230199927</v>
+      </c>
+      <c r="E76">
+        <v>-0.04342689861254367</v>
+      </c>
+      <c r="F76">
+        <v>-0.07889349002834251</v>
+      </c>
+      <c r="G76">
+        <v>-0.06571519970519206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.06171194687131543</v>
+        <v>0.06704692103862889</v>
       </c>
       <c r="C77">
-        <v>-0.06123578782880755</v>
+        <v>-0.06137843452765526</v>
       </c>
       <c r="D77">
-        <v>0.01179781133847134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01081226990937802</v>
+      </c>
+      <c r="E77">
+        <v>0.05363359154172149</v>
+      </c>
+      <c r="F77">
+        <v>-0.03965585139564995</v>
+      </c>
+      <c r="G77">
+        <v>-0.1114881394330267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04887704376346567</v>
+        <v>0.04187786993567454</v>
       </c>
       <c r="C78">
-        <v>-0.05309007885001743</v>
+        <v>-0.05513458471273983</v>
       </c>
       <c r="D78">
-        <v>0.007304804255567037</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.01020412211520963</v>
+      </c>
+      <c r="E78">
+        <v>0.05725848167575072</v>
+      </c>
+      <c r="F78">
+        <v>0.02352667694105724</v>
+      </c>
+      <c r="G78">
+        <v>-0.09606891481211902</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.000584256697625452</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0003424020622588783</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0009397480383647659</v>
+      </c>
+      <c r="E79">
+        <v>0.007420985431221067</v>
+      </c>
+      <c r="F79">
+        <v>-0.002468185421969805</v>
+      </c>
+      <c r="G79">
+        <v>-0.008965690770816936</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.05751167745333276</v>
+        <v>0.04107277626201188</v>
       </c>
       <c r="C80">
-        <v>-0.06321464670995156</v>
+        <v>-0.045574457784978</v>
       </c>
       <c r="D80">
-        <v>0.01624180610937249</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0152082049045971</v>
+      </c>
+      <c r="E80">
+        <v>0.04128084529237417</v>
+      </c>
+      <c r="F80">
+        <v>-0.003886107687900099</v>
+      </c>
+      <c r="G80">
+        <v>-0.04633338995071768</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1380881313433565</v>
+        <v>0.1404146815609619</v>
       </c>
       <c r="C81">
-        <v>-0.07791249429177592</v>
+        <v>-0.09223313077372251</v>
       </c>
       <c r="D81">
-        <v>-0.009545929769945663</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01664496395939085</v>
+      </c>
+      <c r="E81">
+        <v>-0.07066021999347399</v>
+      </c>
+      <c r="F81">
+        <v>-0.1030069879796843</v>
+      </c>
+      <c r="G81">
+        <v>-0.03924394459113235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.05227496692755904</v>
+        <v>0.1746406041086375</v>
       </c>
       <c r="C82">
-        <v>-0.03774948917362754</v>
+        <v>-0.124444903098943</v>
       </c>
       <c r="D82">
-        <v>0.000145206241978474</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.02047779247610484</v>
+      </c>
+      <c r="E82">
+        <v>-0.1863779252593629</v>
+      </c>
+      <c r="F82">
+        <v>-0.05246102280638577</v>
+      </c>
+      <c r="G82">
+        <v>-0.02977186795270623</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03045462385417165</v>
+        <v>0.02849380317185037</v>
       </c>
       <c r="C83">
-        <v>-0.02026909204626907</v>
+        <v>-0.03237639170250555</v>
       </c>
       <c r="D83">
-        <v>0.004348312724748824</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.007911332643945886</v>
+      </c>
+      <c r="E83">
+        <v>0.03519714583385939</v>
+      </c>
+      <c r="F83">
+        <v>0.009687439224952361</v>
+      </c>
+      <c r="G83">
+        <v>-0.05747067022939528</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2492609987732908</v>
+        <v>0.2141509706426391</v>
       </c>
       <c r="C85">
-        <v>-0.1295480614397501</v>
+        <v>-0.1249483329145915</v>
       </c>
       <c r="D85">
-        <v>-0.01128070466398526</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01943625930958107</v>
+      </c>
+      <c r="E85">
+        <v>-0.1069722353670944</v>
+      </c>
+      <c r="F85">
+        <v>-0.05464147927074026</v>
+      </c>
+      <c r="G85">
+        <v>0.01873557209981698</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008726789855778717</v>
+        <v>0.01092356062299601</v>
       </c>
       <c r="C86">
-        <v>-0.02132299136022861</v>
+        <v>-0.02464860895017934</v>
       </c>
       <c r="D86">
-        <v>0.009408679694582733</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01552081698789486</v>
+      </c>
+      <c r="E86">
+        <v>0.07709939373431075</v>
+      </c>
+      <c r="F86">
+        <v>0.01075672173658752</v>
+      </c>
+      <c r="G86">
+        <v>-0.169493087041927</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0135976749020562</v>
+        <v>0.02021381126987129</v>
       </c>
       <c r="C87">
-        <v>-0.02174022296074667</v>
+        <v>-0.01538559684745038</v>
       </c>
       <c r="D87">
-        <v>0.01024730517984879</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01502508138107527</v>
+      </c>
+      <c r="E87">
+        <v>0.09845186332886201</v>
+      </c>
+      <c r="F87">
+        <v>-0.03698801713163678</v>
+      </c>
+      <c r="G87">
+        <v>-0.108717303008402</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.09525967821669215</v>
+        <v>0.08945153158204006</v>
       </c>
       <c r="C88">
-        <v>-0.06074474089429192</v>
+        <v>-0.06060395349887761</v>
       </c>
       <c r="D88">
-        <v>0.02410290972028701</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02346729183508661</v>
+      </c>
+      <c r="E88">
+        <v>0.008765559238336865</v>
+      </c>
+      <c r="F88">
+        <v>-0.01884677312079543</v>
+      </c>
+      <c r="G88">
+        <v>-0.1024640366375836</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2017148898991921</v>
+        <v>0.2114019940272553</v>
       </c>
       <c r="C89">
-        <v>0.3746983392213221</v>
+        <v>0.3715818306186434</v>
       </c>
       <c r="D89">
-        <v>-0.07076224405375389</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.001093765794957242</v>
+      </c>
+      <c r="E89">
+        <v>-0.02495865615075873</v>
+      </c>
+      <c r="F89">
+        <v>-0.01417489290336281</v>
+      </c>
+      <c r="G89">
+        <v>-0.08885312667800777</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1809367963004551</v>
+        <v>0.1985870507698995</v>
       </c>
       <c r="C90">
-        <v>0.3387892564535211</v>
+        <v>0.3234240081915394</v>
       </c>
       <c r="D90">
-        <v>-0.06927834716188602</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004285012883203749</v>
+      </c>
+      <c r="E90">
+        <v>-0.01642520728091744</v>
+      </c>
+      <c r="F90">
+        <v>-0.05298921419779653</v>
+      </c>
+      <c r="G90">
+        <v>-0.05358194758564123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.201237320854216</v>
+        <v>0.1910498939439416</v>
       </c>
       <c r="C91">
-        <v>-0.1140059341148529</v>
+        <v>-0.1296552822846343</v>
       </c>
       <c r="D91">
-        <v>-0.0160721842871002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02376370079500489</v>
+      </c>
+      <c r="E91">
+        <v>-0.0855027805707934</v>
+      </c>
+      <c r="F91">
+        <v>-0.1026234531682101</v>
+      </c>
+      <c r="G91">
+        <v>-0.04402292234450585</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1843359051617041</v>
+        <v>0.1795219000923654</v>
       </c>
       <c r="C92">
-        <v>0.2622650393042806</v>
+        <v>0.2757236250897491</v>
       </c>
       <c r="D92">
-        <v>-0.09375949653353917</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.0390226465148977</v>
+      </c>
+      <c r="E92">
+        <v>0.01119048707770451</v>
+      </c>
+      <c r="F92">
+        <v>-0.07014753748891689</v>
+      </c>
+      <c r="G92">
+        <v>-0.0767788473681783</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1934613621518726</v>
+        <v>0.2214399176130909</v>
       </c>
       <c r="C93">
-        <v>0.3193345183762532</v>
+        <v>0.3216844425669735</v>
       </c>
       <c r="D93">
-        <v>-0.07255155286213713</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.009995804100644155</v>
+      </c>
+      <c r="E93">
+        <v>0.002556696592065887</v>
+      </c>
+      <c r="F93">
+        <v>-0.03622603792453443</v>
+      </c>
+      <c r="G93">
+        <v>-0.05700569884322427</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2810078873371328</v>
+        <v>0.339400733062745</v>
       </c>
       <c r="C94">
-        <v>-0.1381327559456594</v>
+        <v>-0.190911269248711</v>
       </c>
       <c r="D94">
-        <v>-0.002844664659549387</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.03323153756722078</v>
+      </c>
+      <c r="E94">
+        <v>-0.394835016353807</v>
+      </c>
+      <c r="F94">
+        <v>-0.3484149944123618</v>
+      </c>
+      <c r="G94">
+        <v>0.3818328158545657</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.07245642901661431</v>
+        <v>0.08090051056827409</v>
       </c>
       <c r="C95">
-        <v>-0.09312554242272451</v>
+        <v>-0.0869189028391974</v>
       </c>
       <c r="D95">
-        <v>0.0004106380774122716</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.00699085198415908</v>
+      </c>
+      <c r="E95">
+        <v>0.1365894825320327</v>
+      </c>
+      <c r="F95">
+        <v>0.1341174068897585</v>
+      </c>
+      <c r="G95">
+        <v>-0.1018757665862302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2090325809221492</v>
+        <v>0.1951504295572614</v>
       </c>
       <c r="C98">
-        <v>-0.04902332161810959</v>
+        <v>-0.04285344823962658</v>
       </c>
       <c r="D98">
-        <v>-0.02788551780325984</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0082072608789818</v>
+      </c>
+      <c r="E98">
+        <v>0.136559809055509</v>
+      </c>
+      <c r="F98">
+        <v>0.1940852363219235</v>
+      </c>
+      <c r="G98">
+        <v>0.06411297897207691</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01150220490523122</v>
+        <v>0.007783701206726465</v>
       </c>
       <c r="C101">
-        <v>-0.01995975415677134</v>
+        <v>-0.02214033051619343</v>
       </c>
       <c r="D101">
-        <v>0.009280353584467767</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01078786947477861</v>
+      </c>
+      <c r="E101">
+        <v>0.01354120903093652</v>
+      </c>
+      <c r="F101">
+        <v>-0.01195395629542566</v>
+      </c>
+      <c r="G101">
+        <v>-0.1030332305568349</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1240704377248502</v>
+        <v>0.1239558721607188</v>
       </c>
       <c r="C102">
-        <v>-0.07210687937335307</v>
+        <v>-0.09330365199264325</v>
       </c>
       <c r="D102">
-        <v>0.004850799789832338</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.001002515784319689</v>
+      </c>
+      <c r="E102">
+        <v>-0.05096021349064025</v>
+      </c>
+      <c r="F102">
+        <v>-0.01818302723986875</v>
+      </c>
+      <c r="G102">
+        <v>-0.01673346379281172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.09509019228826601</v>
+        <v>0.01925327504916322</v>
       </c>
       <c r="C104">
-        <v>0.1787515521274981</v>
+        <v>0.02733188758368956</v>
       </c>
       <c r="D104">
-        <v>0.9703208116344199</v>
+        <v>-0.9851939530443631</v>
+      </c>
+      <c r="E104">
+        <v>-0.09734228182145124</v>
+      </c>
+      <c r="F104">
+        <v>-0.01889353589945832</v>
+      </c>
+      <c r="G104">
+        <v>0.03761265401176798</v>
       </c>
     </row>
   </sheetData>
